--- a/comparison_results/PSO_PID_No_Disturbance_Test_3.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_3.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06926096367875918</v>
+        <v>0.03514237897037035</v>
       </c>
       <c r="C2" t="n">
-        <v>1.851851851851852</v>
+        <v>0.8908908908908909</v>
       </c>
       <c r="D2" t="n">
-        <v>4.646954358652255</v>
+        <v>0.0259018832484248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.5905905905905906</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004463541352560463</v>
+        <v>0.01080357804761982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1894876577758575</v>
+        <v>0.2251652879794107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8319874557562369</v>
+        <v>0.9343620440063967</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3288534368551744</v>
+        <v>0.342218566737266</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>13.21423586443013</v>
       </c>
       <c r="K2" t="n">
-        <v>1.020666289859981</v>
+        <v>1.007904143519282</v>
       </c>
       <c r="L2" t="n">
-        <v>4.999999049339632</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>9.969552887861289</v>
+        <v>1.378409448617691</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09785996816683673</v>
+        <v>0.05895675626832682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.89584962373611</v>
+        <v>0.2282674043573872</v>
       </c>
       <c r="P2" t="n">
-        <v>1.697489187190408</v>
+        <v>0.9425463599594709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05512447363654446</v>
+        <v>0.001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8091082583322359</v>
+        <v>0.1959495349251794</v>
       </c>
       <c r="S2" t="n">
-        <v>9.641955229153513</v>
+        <v>0.2341975653505338</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.936056331006304</v>
+        <v>0.2201172735697143</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04840493086338367</v>
+        <v>0.03892318580864339</v>
       </c>
       <c r="C3" t="n">
-        <v>1.161161161161161</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D3" t="n">
-        <v>1.162612578836764</v>
+        <v>0.2575220600856909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01622230662715092</v>
+        <v>0.01340182972891565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.340053036558956</v>
+        <v>0.2582195848283629</v>
       </c>
       <c r="H3" t="n">
-        <v>1.181528416357437</v>
+        <v>0.9971006567810263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3751024102828401</v>
+        <v>0.3528024688187054</v>
       </c>
       <c r="J3" t="n">
-        <v>10.43591155110495</v>
+        <v>12.1202553837184</v>
       </c>
       <c r="K3" t="n">
-        <v>1.004346240968187</v>
+        <v>1.006620631292467</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>9.999999766939263</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0592844335260974</v>
+        <v>0.00682120985123253</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1</v>
+        <v>0.9421627337666241</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>1.166224464992868</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.04455770163565338</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5228621950778342</v>
+        <v>0.314964371620429</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>6.650978721093846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001</v>
+        <v>0.06795347258124652</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56923062707444</v>
+        <v>1.319975628882698</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03622710914756089</v>
+        <v>0.03793908734310851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9109109109109109</v>
+        <v>0.960960960960961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1297996236447663</v>
+        <v>0.214280957143087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6006006006006006</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01037537081583167</v>
+        <v>0.009421482372341659</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2357752414722241</v>
+        <v>0.25337164003019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9560768886652065</v>
+        <v>0.9690002180860653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3457115055744479</v>
+        <v>0.3529052201513207</v>
       </c>
       <c r="J4" t="n">
-        <v>12.79359022092174</v>
+        <v>11.64831392940065</v>
       </c>
       <c r="K4" t="n">
-        <v>1.008389776177184</v>
+        <v>1.010485646661085</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.701386367174117</v>
       </c>
       <c r="M4" t="n">
-        <v>3.035777000288537</v>
+        <v>4.074018897363711</v>
       </c>
       <c r="N4" t="n">
         <v>0.001</v>
       </c>
       <c r="O4" t="n">
-        <v>1.165392141425749</v>
+        <v>1.304280456809103</v>
       </c>
       <c r="P4" t="n">
-        <v>1.128708455389029</v>
+        <v>1.196093435589145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04737301100643768</v>
+        <v>0.05497576058717616</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2233243208215524</v>
+        <v>0.2900560998893287</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>9.728329278301143</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001</v>
+        <v>0.07240522127072554</v>
       </c>
       <c r="U4" t="n">
-        <v>1.412824847736146</v>
+        <v>0.1050463004919795</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07269683776052313</v>
+        <v>0.04406989997765298</v>
       </c>
       <c r="C5" t="n">
-        <v>1.861861861861862</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D5" t="n">
-        <v>5.901109477040434</v>
+        <v>1.714187552394542</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002949374257013802</v>
+        <v>0.0013301200970732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1879355495598462</v>
+        <v>0.2863526633369565</v>
       </c>
       <c r="H5" t="n">
-        <v>0.836627181886101</v>
+        <v>1.006151360336485</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3286896958528518</v>
+        <v>0.3637986569365895</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>11.07941059061807</v>
       </c>
       <c r="K5" t="n">
-        <v>1.012384966587616</v>
+        <v>1.020297875921988</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>3.04659397262131</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09969828918442368</v>
+        <v>0.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5647994502048755</v>
+        <v>0.5815024785687607</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1000077659279095</v>
+        <v>0.9987530960265844</v>
       </c>
       <c r="Q5" t="n">
         <v>0.001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9713676546977613</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.862670097417566</v>
+        <v>9.95114864988094</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08051384173523531</v>
+        <v>0.001240570766898075</v>
       </c>
       <c r="U5" t="n">
-        <v>1.977667021501405</v>
+        <v>0.1014092225935385</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04782973057436171</v>
+        <v>0.0401761277501881</v>
       </c>
       <c r="C6" t="n">
-        <v>1.161161161161161</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8044809235835837</v>
+        <v>0.6732924163213028</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.020586484667221</v>
+        <v>0.009689294335316784</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3438812969614904</v>
+        <v>0.2623538858288672</v>
       </c>
       <c r="H6" t="n">
-        <v>1.205607420125302</v>
+        <v>0.9925082004372587</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3744636577734677</v>
+        <v>0.3551081499752465</v>
       </c>
       <c r="J6" t="n">
-        <v>10.33848193334171</v>
+        <v>11.8258481151232</v>
       </c>
       <c r="K6" t="n">
-        <v>1.000256993794366</v>
+        <v>1.009907816160253</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>9.907539790936246</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
         <v>0.001</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8593512965790033</v>
+        <v>1.547106549258181</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>1.002239002351271</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1</v>
+        <v>0.07695433949919157</v>
       </c>
       <c r="R6" t="n">
-        <v>1.439295623057479</v>
+        <v>0.825898367344254</v>
       </c>
       <c r="S6" t="n">
-        <v>9.498741437777522</v>
+        <v>0.1835873878140675</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09607618374558756</v>
+        <v>0.01650419286670943</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4494848187821341</v>
+        <v>0.1680225537390355</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04315476042449295</v>
+        <v>0.03772114376852445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.970970970970971</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D7" t="n">
-        <v>1.702090891282615</v>
+        <v>0.2883704441155821</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01354837236173088</v>
+        <v>0.003797363834738545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.275523584444135</v>
+        <v>0.2457160916264564</v>
       </c>
       <c r="H7" t="n">
-        <v>1.059811279983317</v>
+        <v>0.9598290741063551</v>
       </c>
       <c r="I7" t="n">
-        <v>0.356595588405719</v>
+        <v>0.3498827426250218</v>
       </c>
       <c r="J7" t="n">
-        <v>11.80049558797065</v>
+        <v>12.37166650210372</v>
       </c>
       <c r="K7" t="n">
-        <v>1.005536481713774</v>
+        <v>1.016226900146991</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6839733909994876</v>
+        <v>3.656361044017419</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08793070083723199</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.434866377200066</v>
+        <v>0.8399514174036857</v>
       </c>
       <c r="P7" t="n">
-        <v>7.773718790928735</v>
+        <v>1.022260813815093</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002033305328204834</v>
+        <v>0.01677041486048563</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1</v>
+        <v>0.1311502081950727</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2027115477518629</v>
+        <v>6.249158561098621</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001</v>
+        <v>0.03779360368273579</v>
       </c>
       <c r="U7" t="n">
-        <v>1.639345415649442</v>
+        <v>0.8272253137207386</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04756560123651771</v>
+        <v>0.03655218541807499</v>
       </c>
       <c r="C8" t="n">
-        <v>1.131131131131131</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D8" t="n">
-        <v>1.359353603119917</v>
+        <v>0.1368940449128164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.6206206206206206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01428453162799778</v>
+        <v>0.006348584135224077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3302588153592169</v>
+        <v>0.2349521072256673</v>
       </c>
       <c r="H8" t="n">
-        <v>1.139011589891484</v>
+        <v>0.9409533197113076</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3743521421971549</v>
+        <v>0.3460015530744049</v>
       </c>
       <c r="J8" t="n">
-        <v>10.24048219380156</v>
+        <v>12.79921804124772</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9919366399974497</v>
+        <v>1.012579656403406</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.999998425718815</v>
       </c>
       <c r="M8" t="n">
-        <v>9.600239463485913</v>
+        <v>2.637120931727055</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.02792644148462183</v>
       </c>
       <c r="O8" t="n">
-        <v>0.572626990053154</v>
+        <v>0.5161152855724239</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1000037075599555</v>
+        <v>1.367898521517817</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001</v>
+        <v>0.08316205371384967</v>
       </c>
       <c r="R8" t="n">
-        <v>1.999264610344052</v>
+        <v>0.5762663320151733</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1</v>
+        <v>3.91366451344585</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07059832238306359</v>
+        <v>0.03260694156177085</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1</v>
+        <v>0.9784339337797793</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04335219689736948</v>
+        <v>0.03534632609564153</v>
       </c>
       <c r="C9" t="n">
-        <v>1.121121121121121</v>
+        <v>0.9209209209209209</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1694170188859312</v>
+        <v>0.06222302167298022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003229365189329324</v>
+        <v>0.001978189228782787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3201984456441684</v>
+        <v>0.2224371977667924</v>
       </c>
       <c r="H9" t="n">
-        <v>1.063970727512463</v>
+        <v>0.8844447623681675</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3725779010839542</v>
+        <v>0.3429006792413749</v>
       </c>
       <c r="J9" t="n">
-        <v>10.53956460121722</v>
+        <v>13.11857802763836</v>
       </c>
       <c r="K9" t="n">
-        <v>1.019460590978019</v>
+        <v>1.019954513860309</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>3.687592112914799</v>
+        <v>0.9494929572518136</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001</v>
+        <v>0.006895497583753785</v>
       </c>
       <c r="O9" t="n">
-        <v>1.464765672909469</v>
+        <v>0.1021712225028561</v>
       </c>
       <c r="P9" t="n">
-        <v>6.127582566540061</v>
+        <v>1.86586052975677</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09998146366268162</v>
+        <v>0.08360056700267786</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1330688874895241</v>
+        <v>0.316936384252296</v>
       </c>
       <c r="S9" t="n">
-        <v>4.961064230176818</v>
+        <v>0.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.006712421054433915</v>
+        <v>0.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.177146020187872</v>
+        <v>1.599938908630312</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03816594160512977</v>
+        <v>0.04192840512086091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.970970970970971</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3395496446257473</v>
+        <v>1.253977195889378</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002387348301544652</v>
+        <v>0.01130145916548907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2480062703882093</v>
+        <v>0.2725580998364058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9442209493880066</v>
+        <v>1.032491768594473</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3506375767703672</v>
+        <v>0.3571733931512041</v>
       </c>
       <c r="J10" t="n">
-        <v>12.42072258321608</v>
+        <v>11.57314125798513</v>
       </c>
       <c r="K10" t="n">
-        <v>1.018472619669747</v>
+        <v>1.009303460408297</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.148209620707664</v>
+        <v>1.217469189683766</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05775185422827085</v>
+        <v>0.09454124823256216</v>
       </c>
       <c r="O10" t="n">
-        <v>0.363804392029388</v>
+        <v>1.844896461097573</v>
       </c>
       <c r="P10" t="n">
-        <v>6.40779187721833</v>
+        <v>0.7707295575793692</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04090809274428506</v>
+        <v>0.05733136069970009</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1</v>
+        <v>1.232817165046043</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1</v>
+        <v>1.125687445537896</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1</v>
+        <v>0.06161241708680391</v>
       </c>
       <c r="U10" t="n">
-        <v>1.712613814814202</v>
+        <v>1.662718425252296</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07091049288261198</v>
+        <v>0.04295486778519914</v>
       </c>
       <c r="C11" t="n">
-        <v>1.911911911911912</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.591424821966106</v>
+        <v>1.569631533676086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F11" t="n">
-        <v>9.719857473419635e-05</v>
+        <v>0.003639963466991218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1942349777168334</v>
+        <v>0.276178539897092</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8530366513051794</v>
+        <v>1.009989698119875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3298152244089533</v>
+        <v>0.3601342310216135</v>
       </c>
       <c r="J11" t="n">
-        <v>14.98013436146671</v>
+        <v>11.43012617915621</v>
       </c>
       <c r="K11" t="n">
-        <v>1.024896521226814</v>
+        <v>1.016461072633736</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>9.778250898871098</v>
+        <v>1.217505770674385</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0889473547873728</v>
+        <v>0.09918593593377067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9138528979972548</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>7.973807218944899</v>
+        <v>6.700219952052564</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1</v>
+        <v>0.03364869135964123</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8633053415809544</v>
+        <v>0.1000126739829247</v>
       </c>
       <c r="S11" t="n">
-        <v>9.999962234386548</v>
+        <v>0.3192742568828554</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02904819280399392</v>
+        <v>0.07544617838747469</v>
       </c>
       <c r="U11" t="n">
-        <v>1.979281075965091</v>
+        <v>1.16619058687984</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04754696541511035</v>
+        <v>0.07630994929205312</v>
       </c>
       <c r="C12" t="n">
-        <v>1.151151151151151</v>
+        <v>2.162162162162162</v>
       </c>
       <c r="D12" t="n">
-        <v>0.678325604935659</v>
+        <v>4.006367527669696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02504966667590109</v>
+        <v>0.0006224984169122195</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3464941588552948</v>
+        <v>0.2117655556162784</v>
       </c>
       <c r="H12" t="n">
-        <v>1.227192146377276</v>
+        <v>0.8944918912594746</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3728228733559525</v>
+        <v>0.3365984127883492</v>
       </c>
       <c r="J12" t="n">
-        <v>10.46158022072562</v>
+        <v>14.30385341705169</v>
       </c>
       <c r="K12" t="n">
-        <v>0.995138892326207</v>
+        <v>1.021181785965264</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>3.2393431916673</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07854183090145886</v>
+        <v>0.09614177257508029</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0.332582064663989</v>
       </c>
       <c r="P12" t="n">
         <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07805166811344282</v>
+        <v>0.07965056210576105</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="S12" t="n">
         <v>0.1</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01084333996746406</v>
+        <v>0.09850735107210754</v>
       </c>
       <c r="U12" t="n">
-        <v>1.873775989000191</v>
+        <v>1.683641293151695</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0446947146272246</v>
+        <v>0.03394797729401562</v>
       </c>
       <c r="C13" t="n">
-        <v>1.061061061061061</v>
+        <v>0.8808808808808809</v>
       </c>
       <c r="D13" t="n">
-        <v>1.430294423567036</v>
+        <v>0.01150082323677637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.5805805805805806</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004863235324125154</v>
+        <v>0.00449884363195035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3010276818245315</v>
+        <v>0.2115859881372316</v>
       </c>
       <c r="H13" t="n">
-        <v>1.046985090612626</v>
+        <v>0.8671418618572398</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3674858252444096</v>
+        <v>0.3388875701932029</v>
       </c>
       <c r="J13" t="n">
-        <v>10.89934536555914</v>
+        <v>13.62310448190264</v>
       </c>
       <c r="K13" t="n">
-        <v>1.015259382463528</v>
+        <v>1.015207058281323</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>9.724219783875013</v>
+        <v>1.347342144850641</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0.05127406283421852</v>
       </c>
       <c r="O13" t="n">
-        <v>1.286745749799795</v>
+        <v>0.4203538059632125</v>
       </c>
       <c r="P13" t="n">
-        <v>6.978254264855416</v>
+        <v>1.973217075631763</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06158815186853692</v>
+        <v>0.06028826072677467</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1122440375649726</v>
+        <v>0.2140434961223261</v>
       </c>
       <c r="S13" t="n">
-        <v>9.999689294561371</v>
+        <v>6.239241209664947</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09998749502408355</v>
+        <v>0.03299196508526778</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79015207908146</v>
+        <v>0.1331335624995227</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04594065028405908</v>
+        <v>0.07178195880599152</v>
       </c>
       <c r="C14" t="n">
-        <v>1.031031031031031</v>
+        <v>2.012012012012012</v>
       </c>
       <c r="D14" t="n">
-        <v>1.956834727512113</v>
+        <v>3.48468623533047</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01584976661644089</v>
+        <v>0.0007945510667911471</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2962945107832702</v>
+        <v>0.2404076103769661</v>
       </c>
       <c r="H14" t="n">
-        <v>1.103305210846934</v>
+        <v>0.9254323892384165</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3634506543151658</v>
+        <v>0.3486257987359272</v>
       </c>
       <c r="J14" t="n">
-        <v>11.21980614225309</v>
+        <v>12.7241705681408</v>
       </c>
       <c r="K14" t="n">
-        <v>1.003686229266244</v>
+        <v>1.026701882907944</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>7.201272852249234</v>
+        <v>9.999235917382798</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07639871194326137</v>
+        <v>0.09999759953403978</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5634928116430574</v>
+        <v>0.2146031983771007</v>
       </c>
       <c r="P14" t="n">
-        <v>9.915131845723391</v>
+        <v>7.847653157031983</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001</v>
+        <v>0.02247907596097717</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9765861847461</v>
+        <v>0.577068823181796</v>
       </c>
       <c r="S14" t="n">
-        <v>9.930767937419008</v>
+        <v>0.100001937576877</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08519645673474292</v>
+        <v>0.07472426757734009</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1095153234059161</v>
+        <v>0.4003225245216998</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04290923733030203</v>
+        <v>0.03733348510606953</v>
       </c>
       <c r="C15" t="n">
-        <v>1.011011011011011</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D15" t="n">
-        <v>1.451860247844716</v>
+        <v>0.5491860655153502</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.6206206206206206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005898089926251949</v>
+        <v>0.003032856916306747</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2763908710163028</v>
+        <v>0.2386528872010918</v>
       </c>
       <c r="H15" t="n">
-        <v>1.009788566426676</v>
+        <v>0.9195185786401943</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3603295757666536</v>
+        <v>0.348642340594858</v>
       </c>
       <c r="J15" t="n">
-        <v>11.27419777395938</v>
+        <v>12.38572796385004</v>
       </c>
       <c r="K15" t="n">
-        <v>1.01433719018437</v>
+        <v>1.018093765296012</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.991764337883728</v>
       </c>
       <c r="M15" t="n">
-        <v>5.686492502532496</v>
+        <v>2.781356917239136</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09053761075093175</v>
+        <v>0.001</v>
       </c>
       <c r="O15" t="n">
-        <v>1.825917818896486</v>
+        <v>1.986161531246258</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8684961925962909</v>
+        <v>1.177128258550862</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09587626417752981</v>
+        <v>0.05610099736046151</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>0.333624981716471</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1083871486226656</v>
+        <v>2.272149169759508</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1</v>
+        <v>0.05685855415193897</v>
       </c>
       <c r="U15" t="n">
-        <v>1.999883777164758</v>
+        <v>0.242111360752836</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03801270331498292</v>
+        <v>0.0421677555654968</v>
       </c>
       <c r="C16" t="n">
-        <v>0.980980980980981</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1466021924908301</v>
+        <v>1.312308718643962</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6506506506506506</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002435023144106728</v>
+        <v>0.008612558934068537</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2496835775059525</v>
+        <v>0.2733931387579892</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9498604337361249</v>
+        <v>1.019619464025774</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3509418262810023</v>
+        <v>0.3584113812422794</v>
       </c>
       <c r="J16" t="n">
-        <v>12.59866264413249</v>
+        <v>11.4220245432348</v>
       </c>
       <c r="K16" t="n">
-        <v>1.014801568980183</v>
+        <v>1.01136761653484</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.414801652396018</v>
+        <v>1.183525925697786</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06414729420002709</v>
+        <v>0.001</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4573229538528475</v>
+        <v>0.1</v>
       </c>
       <c r="P16" t="n">
-        <v>7.046671140969742</v>
+        <v>1.025580091660563</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09841928860515427</v>
+        <v>0.0999945114285371</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1040176301637203</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>9.066971548122959</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03477954257645104</v>
+        <v>0.09184426625555012</v>
       </c>
       <c r="U16" t="n">
-        <v>1.415639597089482</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07170380194434094</v>
+        <v>0.04063202319090835</v>
       </c>
       <c r="C17" t="n">
-        <v>1.991991991991992</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D17" t="n">
-        <v>3.916759439271522</v>
+        <v>1.547782756813265</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001637961182625292</v>
+        <v>0.0005803074665842267</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2123852636544049</v>
+        <v>0.2439482667865948</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8840141782472244</v>
+        <v>0.9415240952934747</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3376102115743757</v>
+        <v>0.3494939402999033</v>
       </c>
       <c r="J17" t="n">
-        <v>13.84446696033621</v>
+        <v>12.54221999564562</v>
       </c>
       <c r="K17" t="n">
-        <v>1.024437564920479</v>
+        <v>1.019830486572837</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>7.550812525922616</v>
+        <v>5.404633078708176</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04622915632798972</v>
+        <v>0.04283297331866522</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7586753735322964</v>
+        <v>0.1156913548509753</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>1.796618250911029</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0468779834346731</v>
+        <v>0.09713557846275558</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8294416784850075</v>
+        <v>0.7971616874595162</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>0.2537340622479049</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1</v>
+        <v>0.006558580896372877</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3186157706679683</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07777486874715168</v>
+        <v>0.03594641290613831</v>
       </c>
       <c r="C18" t="n">
-        <v>2.072072072072072</v>
+        <v>0.9109109109109109</v>
       </c>
       <c r="D18" t="n">
-        <v>5.598104325532383</v>
+        <v>0.2708852751523994</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F18" t="n">
-        <v>4.764504194292085e-05</v>
+        <v>0.001635270577634086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2013122927214232</v>
+        <v>0.2317824508555729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8776995734329449</v>
+        <v>0.9070011752965343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3306881129187669</v>
+        <v>0.3463057815830247</v>
       </c>
       <c r="J18" t="n">
-        <v>14.73920210260593</v>
+        <v>12.63725289165286</v>
       </c>
       <c r="K18" t="n">
-        <v>1.022613577912368</v>
+        <v>1.019651048251928</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.999920080364918</v>
       </c>
       <c r="M18" t="n">
-        <v>8.140289799161035</v>
+        <v>1.728894697731738</v>
       </c>
       <c r="N18" t="n">
         <v>0.001</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8805594613001481</v>
+        <v>0.1345498887433298</v>
       </c>
       <c r="P18" t="n">
-        <v>5.044433875833399</v>
+        <v>1.144681279776275</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02078603592429695</v>
+        <v>0.0389283470050792</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>0.2041678157939685</v>
       </c>
       <c r="S18" t="n">
-        <v>7.973850582859044</v>
+        <v>0.1797656713709687</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1</v>
+        <v>0.09479743281611366</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91143710205726</v>
+        <v>1.732298622691318</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03703121916383085</v>
+        <v>0.04210084927209047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9409409409409409</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.4735115790504452</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6206206206206206</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01323112196354775</v>
+        <v>0.00791270715453498</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416223853433737</v>
+        <v>0.2956036684418855</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9839666970872364</v>
+        <v>1.053022056478292</v>
       </c>
       <c r="I19" t="n">
-        <v>0.346429483401463</v>
+        <v>0.364364358255696</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89151806457321</v>
+        <v>11.59427915616736</v>
       </c>
       <c r="K19" t="n">
-        <v>1.004480865546114</v>
+        <v>1.010884543443591</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>5.054515550296177</v>
+        <v>6.567286901113236</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09999406462953565</v>
+        <v>0.08028376880585676</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8978450659521595</v>
+        <v>0.1011436355462191</v>
       </c>
       <c r="P19" t="n">
-        <v>1.337825590074109</v>
+        <v>7.531381502160742</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06614127707580278</v>
+        <v>0.1</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4910430666310124</v>
+        <v>0.1635736935930652</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>0.9218025796689587</v>
       </c>
       <c r="T19" t="n">
+        <v>0.09937544954956179</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.3102850407167511</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03665082778498298</v>
+        <v>0.04372053079757161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8808808808808809</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8527991083643771</v>
+        <v>0.9839190915373885</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5805805805805806</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006088155460278635</v>
+        <v>0.01286827670395156</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2174408178163278</v>
+        <v>0.2966360007734911</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9127683122374698</v>
+        <v>1.080102143086753</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3393102313360059</v>
+        <v>0.3641187079854859</v>
       </c>
       <c r="J20" t="n">
-        <v>13.66364107264939</v>
+        <v>11.04238248272458</v>
       </c>
       <c r="K20" t="n">
-        <v>1.01112350272051</v>
+        <v>1.008058371934464</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.999779476458644</v>
       </c>
       <c r="M20" t="n">
-        <v>2.48466625994302</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
+        <v>0.09999926094608143</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.598076696702905</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.066827554694486</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.07699481549846802</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.738393283528717</v>
+      </c>
+      <c r="S20" t="n">
         <v>0.1</v>
       </c>
-      <c r="O20" t="n">
-        <v>0.3912725932526515</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.39262275043002</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0174413133146206</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.904685831622992</v>
-      </c>
       <c r="T20" t="n">
-        <v>0.002827226145171745</v>
+        <v>0.09816506166772546</v>
       </c>
       <c r="U20" t="n">
-        <v>1.900423943681357</v>
+        <v>0.3276593756854485</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0462210290623056</v>
+        <v>0.04308852628665766</v>
       </c>
       <c r="C21" t="n">
-        <v>1.141141141141141</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5543776488293961</v>
+        <v>1.668678488082698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01570494712517246</v>
+        <v>0.007396860260557787</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3343462151473827</v>
+        <v>0.2734493897111111</v>
       </c>
       <c r="H21" t="n">
-        <v>1.170786026877333</v>
+        <v>1.021984667449647</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3732943017924039</v>
+        <v>0.3584879578003096</v>
       </c>
       <c r="J21" t="n">
-        <v>10.46248874422509</v>
+        <v>11.5151949415342</v>
       </c>
       <c r="K21" t="n">
-        <v>1.005067072644168</v>
+        <v>1.012545501582959</v>
       </c>
       <c r="L21" t="n">
-        <v>4.999998462131193</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>8.80646377958711</v>
+        <v>6.871051527015685</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08292527549995225</v>
+        <v>0.07556350787637987</v>
       </c>
       <c r="O21" t="n">
-        <v>1.845961156940277</v>
+        <v>1.054729478965311</v>
       </c>
       <c r="P21" t="n">
-        <v>5.422072493023586</v>
+        <v>0.8906918921946695</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03213132110479602</v>
+        <v>0.09570849166400339</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1000002808198796</v>
+        <v>1.983023538202727</v>
       </c>
       <c r="S21" t="n">
-        <v>8.234043455330117</v>
+        <v>4.909183847470079</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01124165163767352</v>
+        <v>0.05289717697064359</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8704044350235484</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
